--- a/MantenimientoClientesTest/Selenium/TestDataAccess/TestData.xlsx
+++ b/MantenimientoClientesTest/Selenium/TestDataAccess/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GNO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GNO\Documents\MantenimientoClientes\MantenimientoClientesTest\Selenium\TestDataAccess\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Key</t>
   </si>
@@ -123,6 +123,27 @@
   </si>
   <si>
     <t>MARIA</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Cliente Agregado con Exito</t>
   </si>
 </sst>
 </file>
@@ -197,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -493,19 +514,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,10 +549,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -553,8 +577,14 @@
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -576,8 +606,14 @@
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -599,8 +635,14 @@
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -619,11 +661,14 @@
       <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -643,7 +688,10 @@
       <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/MantenimientoClientesTest/Selenium/TestDataAccess/TestData.xlsx
+++ b/MantenimientoClientesTest/Selenium/TestDataAccess/TestData.xlsx
@@ -15,11 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
